--- a/HospitalManagementSystem/dataFiles/backup_Medicine_List.xlsx
+++ b/HospitalManagementSystem/dataFiles/backup_Medicine_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LF work\LF running courses\CX2002\Assignment\2024S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Feng\Downloads\University Work\Year 2 Sem 1\SC2002\SC2002-OOP-Assignment\HospitalManagementSystem\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048B4EB-70E3-47B1-AB1B-763235055723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8627D3-F401-44ED-8C56-893E36A8D18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Medicine Name</t>
   </si>
@@ -38,22 +38,12 @@
   </si>
   <si>
     <t>Amoxicillin</t>
-  </si>
-  <si>
-    <t>Joel's Hope</t>
-  </si>
-  <si>
-    <t>Joel's Cope</t>
-  </si>
-  <si>
-    <t>Joel's Shattered Dreams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,20 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.21875" collapsed="true"/>
+    <col min="1" max="1" width="32.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.1796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,48 +429,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20.0</v>
+      <c r="B2">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.0</v>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.0</v>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
